--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.43</v>
+        <v>-0.174</v>
       </c>
       <c r="D4" t="n">
-        <v>-18792.31</v>
+        <v>-928.5700000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.133</v>
+        <v>-0.045</v>
       </c>
       <c r="D5" t="n">
-        <v>-678.26</v>
+        <v>-287.5</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.866</v>
       </c>
       <c r="C6" t="n">
-        <v>10.915</v>
+        <v>3.437</v>
       </c>
       <c r="D6" t="n">
-        <v>247.39</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.729</v>
+        <v>0.205</v>
       </c>
       <c r="D7" t="n">
-        <v>268.18</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>21.602</v>
+        <v>13.867</v>
       </c>
       <c r="D8" t="n">
-        <v>96.76000000000001</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.195</v>
       </c>
       <c r="C9" t="n">
-        <v>9.31</v>
+        <v>2.249</v>
       </c>
       <c r="D9" t="n">
-        <v>322.99</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>14.834</v>
       </c>
       <c r="C10" t="n">
-        <v>138.269</v>
+        <v>24.384</v>
       </c>
       <c r="D10" t="n">
-        <v>666.33</v>
+        <v>64.38</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.053</v>
       </c>
       <c r="C11" t="n">
-        <v>1.515</v>
+        <v>0.096</v>
       </c>
       <c r="D11" t="n">
-        <v>2343.55</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.011</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.193</v>
+        <v>-0.661</v>
       </c>
       <c r="D12" t="n">
-        <v>10324.64</v>
+        <v>5909.09</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.851</v>
       </c>
       <c r="C13" t="n">
-        <v>11.759</v>
+        <v>4.938</v>
       </c>
       <c r="D13" t="n">
-        <v>176.81</v>
+        <v>28.23</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.224329993128777</v>
+        <v>5.37340185755775</v>
       </c>
       <c r="C4" t="n">
-        <v>4.12354002892971</v>
+        <v>6.07590845652989</v>
       </c>
       <c r="D4" t="n">
-        <v>27.89</v>
+        <v>13.07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.515851307146989</v>
+        <v>1.450743367319904</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4285706816238924</v>
+        <v>1.470450626467665</v>
       </c>
       <c r="G4" t="n">
-        <v>-16.92</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.062976427663369</v>
+        <v>4.139789054906182</v>
       </c>
       <c r="C6" t="n">
-        <v>4.058033078817629</v>
+        <v>3.573160720857391</v>
       </c>
       <c r="D6" t="n">
-        <v>-19.85</v>
+        <v>-13.69</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9270898841563782</v>
+        <v>1.096475535851732</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5732150273570352</v>
+        <v>0.7804108138565992</v>
       </c>
       <c r="G6" t="n">
-        <v>-38.17</v>
+        <v>-28.83</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.174</v>
+        <v>-0.044</v>
       </c>
       <c r="D4" t="n">
-        <v>-928.5700000000001</v>
+        <v>46.67</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.045</v>
+        <v>-0.012</v>
       </c>
       <c r="D5" t="n">
-        <v>-287.5</v>
+        <v>-163.16</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.866</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>3.437</v>
+        <v>2.794</v>
       </c>
       <c r="D6" t="n">
-        <v>19.92</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.192</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="D7" t="n">
-        <v>6.77</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>13.867</v>
+        <v>10.209</v>
       </c>
       <c r="D8" t="n">
-        <v>26.3</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.195</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.249</v>
+        <v>2.805</v>
       </c>
       <c r="D9" t="n">
-        <v>2.46</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.834</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>24.384</v>
+        <v>12.03</v>
       </c>
       <c r="D10" t="n">
-        <v>64.38</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.096</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
-        <v>81.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.661</v>
+        <v>-0.018</v>
       </c>
       <c r="D12" t="n">
-        <v>5909.09</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.851</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>4.938</v>
+        <v>3.468</v>
       </c>
       <c r="D13" t="n">
-        <v>28.23</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.37340185755775</v>
+        <v>3.070338263398125</v>
       </c>
       <c r="C4" t="n">
-        <v>6.07590845652989</v>
+        <v>3.979644940012977</v>
       </c>
       <c r="D4" t="n">
-        <v>13.07</v>
+        <v>29.62</v>
       </c>
       <c r="E4" t="n">
-        <v>1.450743367319904</v>
+        <v>0.8748370155805357</v>
       </c>
       <c r="F4" t="n">
-        <v>1.470450626467665</v>
+        <v>0.6024035220034396</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>-31.14</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.2</v>
+        <v>-28.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.139789054906182</v>
+        <v>3.461938811277938</v>
       </c>
       <c r="C6" t="n">
-        <v>3.573160720857391</v>
+        <v>2.622197113250432</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.69</v>
+        <v>-24.26</v>
       </c>
       <c r="E6" t="n">
-        <v>1.096475535851732</v>
+        <v>1.025652508649881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7804108138565992</v>
+        <v>0.3583139885778414</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.83</v>
+        <v>-65.06</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
